--- a/anaerobe_lab_data.xlsx
+++ b/anaerobe_lab_data.xlsx
@@ -464,116 +464,62 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>90</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>72</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>60</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>90</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>90</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>69</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>120</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>86</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>92</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>150</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>56</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>82</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>180</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>95</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>210</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>56</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>15</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>251</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
